--- a/second-order/1879/November1879.xlsx
+++ b/second-order/1879/November1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1879/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1879\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF73B7-355F-5643-9B56-391733554253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17737" documentId="13_ncr:1_{9500CFE1-CB4A-4E8D-BF9A-149E604A360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFFF8AB7-F22C-4AEA-91D7-4F6518BAF4DF}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="15" activeTab="25" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="25" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4417" uniqueCount="96">
   <si>
     <t>Barometer</t>
   </si>
@@ -358,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +384,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +394,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -528,11 +527,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,6 +680,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -934,17 +1013,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BBBF1-A4DB-41BA-A184-52AB6B954A47}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -981,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1255,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1385,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1450,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1515,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1580,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1566,7 +1645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1710,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1775,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +1840,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +1905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +1970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1956,7 +2035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2165,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2230,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +2295,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2411,7 +2490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2541,7 +2620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2606,7 +2685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2671,7 +2750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2931,7 +3010,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2990,13 +3069,13 @@
         <v>8</v>
       </c>
       <c r="T33" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U33" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3033,11 +3112,15 @@
       <c r="N34" s="12">
         <v>83.3</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.8</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.6</v>
       </c>
@@ -3068,17 +3151,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69065F44-B6FE-4052-938F-A53648DF520D}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3115,7 +3198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3180,7 +3263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -3245,7 +3328,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -3310,7 +3393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -3375,7 +3458,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -3440,7 +3523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -3505,7 +3588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -3570,7 +3653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -3635,7 +3718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -3700,7 +3783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -3765,7 +3848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -3830,7 +3913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -3895,7 +3978,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -3960,7 +4043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -4025,7 +4108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -4090,7 +4173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -4155,7 +4238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -4285,7 +4368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -4350,7 +4433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -4415,7 +4498,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -4480,7 +4563,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -4545,7 +4628,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -4610,7 +4693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -4675,7 +4758,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -4740,7 +4823,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -4805,7 +4888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -4870,7 +4953,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -4935,7 +5018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
@@ -5000,7 +5083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -5041,7 +5124,7 @@
         <v>85</v>
       </c>
       <c r="N32" s="6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>21</v>
@@ -5065,7 +5148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -5130,7 +5213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5167,11 +5250,15 @@
       <c r="N34" s="12">
         <v>89</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.8</v>
       </c>
@@ -5201,26 +5288,26 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED182907-3967-4840-BF65-EDCDC4C0836B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="J26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5257,7 +5344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5322,7 +5409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -5387,7 +5474,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -5452,7 +5539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -5517,7 +5604,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -5582,7 +5669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -5647,7 +5734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -5712,7 +5799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -5777,7 +5864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -5842,7 +5929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -5907,7 +5994,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -5972,7 +6059,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -6037,7 +6124,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -6102,7 +6189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -6167,7 +6254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -6232,7 +6319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -6297,7 +6384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -6362,7 +6449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
@@ -6427,7 +6514,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -6492,7 +6579,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -6557,7 +6644,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -6622,7 +6709,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -6687,7 +6774,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
@@ -6752,7 +6839,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -6817,7 +6904,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -6882,7 +6969,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -6947,7 +7034,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -7012,7 +7099,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -7077,7 +7164,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -7142,7 +7229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -7207,7 +7294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
@@ -7272,7 +7359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -7309,11 +7396,15 @@
       <c r="N34" s="12">
         <v>89.2</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.4</v>
       </c>
@@ -7326,6 +7417,23 @@
       <c r="U34" s="13">
         <v>1.1399999999999999</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7345,17 +7453,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7392,7 +7500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7457,7 +7565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -7522,7 +7630,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -7587,7 +7695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -7652,7 +7760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -7717,7 +7825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -7782,7 +7890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -7847,7 +7955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -7912,7 +8020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -7977,7 +8085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -8042,7 +8150,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -8107,7 +8215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -8172,7 +8280,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -8237,7 +8345,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -8302,7 +8410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -8367,7 +8475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -8432,7 +8540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -8497,7 +8605,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -8562,7 +8670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -8627,7 +8735,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -8692,7 +8800,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -8757,7 +8865,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -8822,7 +8930,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -8887,7 +8995,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -8952,7 +9060,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -9017,7 +9125,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -9082,7 +9190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
@@ -9147,7 +9255,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -9212,7 +9320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -9277,7 +9385,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -9342,7 +9450,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -9407,7 +9515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9444,11 +9552,15 @@
       <c r="N34" s="12">
         <v>86.1</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.7</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.7</v>
       </c>
@@ -9478,26 +9590,26 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC329757-9589-43BA-9830-B0C05F54B799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="I26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9534,7 +9646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9599,7 +9711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -9664,7 +9776,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -9729,7 +9841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -9794,7 +9906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -9856,10 +9968,10 @@
         <v>10</v>
       </c>
       <c r="U7" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -9924,7 +10036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -9989,7 +10101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -10054,7 +10166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -10119,7 +10231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -10184,7 +10296,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -10249,7 +10361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -10314,7 +10426,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -10379,7 +10491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -10444,7 +10556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -10509,7 +10621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -10574,7 +10686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -10639,7 +10751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -10704,7 +10816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -10769,7 +10881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -10834,7 +10946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -10899,7 +11011,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -10964,7 +11076,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -11029,7 +11141,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -11094,7 +11206,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -11159,7 +11271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -11224,7 +11336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -11289,7 +11401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -11354,7 +11466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -11419,7 +11531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -11484,7 +11596,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -11549,7 +11661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11586,11 +11698,15 @@
       <c r="N34" s="12">
         <v>85.6</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.9</v>
       </c>
@@ -11603,6 +11719,23 @@
       <c r="U34" s="20">
         <v>0.7</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11622,17 +11755,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D50969-602C-407C-90E2-38F88EF089F3}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -11669,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11734,7 +11867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -11799,7 +11932,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -11864,7 +11997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -11929,7 +12062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -11994,7 +12127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -12059,7 +12192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -12124,7 +12257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -12189,7 +12322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -12254,7 +12387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -12319,7 +12452,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -12384,7 +12517,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -12449,7 +12582,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -12514,7 +12647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -12579,7 +12712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -12644,7 +12777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -12709,7 +12842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -12774,7 +12907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -12797,7 +12930,7 @@
         <v>41.8</v>
       </c>
       <c r="H20" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="I20" s="1">
         <v>38.1</v>
@@ -12839,7 +12972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -12904,7 +13037,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -12969,7 +13102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -13034,7 +13167,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -13099,7 +13232,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -13113,7 +13246,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="5">
-        <v>30.995999999999999</v>
+        <v>29.995999999999999</v>
       </c>
       <c r="F25" s="6">
         <v>30.042999999999999</v>
@@ -13164,7 +13297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -13229,7 +13362,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -13294,7 +13427,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -13359,7 +13492,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -13421,10 +13554,10 @@
         <v>10</v>
       </c>
       <c r="U29" s="9">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -13489,7 +13622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -13554,7 +13687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -13619,7 +13752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -13684,7 +13817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13721,11 +13854,15 @@
       <c r="N34" s="12">
         <v>91.1</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>0.6</v>
       </c>
@@ -13756,17 +13893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="M26" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13803,7 +13940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +14005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -13933,7 +14070,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -13998,7 +14135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -14063,7 +14200,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -14128,7 +14265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -14193,7 +14330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -14258,7 +14395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -14323,7 +14460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -14388,7 +14525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -14453,7 +14590,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -14518,7 +14655,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -14583,7 +14720,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -14648,7 +14785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -14713,7 +14850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -14778,7 +14915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -14843,7 +14980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -14908,7 +15045,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
@@ -14973,7 +15110,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -15038,7 +15175,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -15103,7 +15240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -15168,7 +15305,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -15233,7 +15370,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -15298,7 +15435,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -15363,7 +15500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -15428,7 +15565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -15493,7 +15630,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>75</v>
       </c>
@@ -15558,7 +15695,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -15623,7 +15760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -15688,7 +15825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
@@ -15753,7 +15890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -15818,7 +15955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -15855,11 +15992,15 @@
       <c r="N34" s="12">
         <v>89.7</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>0.7</v>
       </c>
@@ -15889,26 +16030,26 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5B7868-56EE-4A9A-910A-A0CD109A2F92}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="I26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -15945,7 +16086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16010,7 +16151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -16075,7 +16216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -16140,7 +16281,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -16205,7 +16346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -16270,7 +16411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -16335,7 +16476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -16400,7 +16541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -16465,7 +16606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -16530,7 +16671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -16595,7 +16736,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -16660,7 +16801,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -16725,7 +16866,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -16790,7 +16931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -16855,7 +16996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -16920,7 +17061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -16985,7 +17126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -17050,7 +17191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -17115,7 +17256,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -17180,7 +17321,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -17245,7 +17386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -17310,7 +17451,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -17375,7 +17516,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -17440,7 +17581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -17505,7 +17646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -17570,7 +17711,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -17635,7 +17776,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -17700,7 +17841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -17752,7 +17893,9 @@
       <c r="Q30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6">
+        <v>2</v>
+      </c>
       <c r="S30" s="1">
         <v>0</v>
       </c>
@@ -17763,7 +17906,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -17828,7 +17971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -17893,7 +18036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21 16384:16384">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -17958,7 +18101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21 16384:16384">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -17995,11 +18138,15 @@
       <c r="N34" s="12">
         <v>89.4</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.3</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.6</v>
       </c>
@@ -18012,6 +18159,24 @@
       <c r="U34" s="13">
         <v>0.88300000000000001</v>
       </c>
+    </row>
+    <row r="35" spans="1:21 16384:16384">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="XFD35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18031,17 +18196,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A310F85-A627-4FFA-A76E-4BA45485986E}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="M22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -18078,7 +18243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18143,7 +18308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -18208,7 +18373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -18273,7 +18438,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -18338,7 +18503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -18403,7 +18568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -18468,7 +18633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -18533,7 +18698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -18598,7 +18763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -18663,7 +18828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
@@ -18728,7 +18893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -18793,7 +18958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -18858,7 +19023,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -18923,7 +19088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -18988,7 +19153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -19053,7 +19218,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -19118,7 +19283,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -19183,7 +19348,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -19248,7 +19413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
@@ -19313,7 +19478,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
@@ -19378,7 +19543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -19443,7 +19608,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -19508,7 +19673,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -19573,7 +19738,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -19638,7 +19803,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -19703,7 +19868,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -19768,7 +19933,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -19833,7 +19998,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -19898,7 +20063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
@@ -19963,7 +20128,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -20028,7 +20193,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -20093,7 +20258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -20116,7 +20281,7 @@
         <v>36</v>
       </c>
       <c r="J34" s="12">
-        <v>344.9</v>
+        <v>44.9</v>
       </c>
       <c r="K34" s="10">
         <v>0.218</v>
@@ -20130,11 +20295,15 @@
       <c r="N34" s="12">
         <v>86.8</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.6</v>
       </c>
@@ -20165,17 +20334,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B67C626-385D-4BB4-83E7-BBFACA9022E8}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -20212,7 +20381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20277,7 +20446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -20339,10 +20508,10 @@
         <v>10</v>
       </c>
       <c r="U4" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -20407,7 +20576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -20472,7 +20641,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -20537,7 +20706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -20602,7 +20771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -20667,7 +20836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -20732,7 +20901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -20797,7 +20966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -20862,7 +21031,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -20927,7 +21096,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -20992,7 +21161,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -21057,7 +21226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -21122,7 +21291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -21187,7 +21356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -21252,7 +21421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -21317,7 +21486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -21382,7 +21551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -21447,7 +21616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -21512,7 +21681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -21577,7 +21746,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -21642,7 +21811,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -21707,7 +21876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -21772,7 +21941,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -21837,7 +22006,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -21902,7 +22071,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -21967,7 +22136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -22032,7 +22201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -22097,7 +22266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -22162,7 +22331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -22227,7 +22396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22264,11 +22433,15 @@
       <c r="N34" s="12">
         <v>88.3</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.9</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.1</v>
       </c>
@@ -22299,17 +22472,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198EE2E4-A17F-42E2-BEC0-BDCB486A0EB2}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -22346,7 +22519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22411,7 +22584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -22476,7 +22649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -22541,7 +22714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -22606,7 +22779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -22671,7 +22844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -22736,7 +22909,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -22801,7 +22974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -22866,7 +23039,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -22931,7 +23104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -22996,7 +23169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -23061,7 +23234,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -23126,7 +23299,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -23191,7 +23364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -23256,7 +23429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -23321,7 +23494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -23386,7 +23559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -23451,7 +23624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -23516,7 +23689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -23581,7 +23754,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -23646,7 +23819,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -23711,7 +23884,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -23776,7 +23949,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
@@ -23841,7 +24014,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -23906,7 +24079,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -23971,7 +24144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -23991,7 +24164,7 @@
         <v>30.231000000000002</v>
       </c>
       <c r="G28" s="1">
-        <v>38.299999999999997</v>
+        <v>38.5</v>
       </c>
       <c r="H28" s="1">
         <v>37.700000000000003</v>
@@ -24036,7 +24209,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -24101,7 +24274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -24166,7 +24339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -24204,7 +24377,7 @@
         <v>0.188</v>
       </c>
       <c r="M31" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N31" s="6">
         <v>91</v>
@@ -24231,7 +24404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -24296,7 +24469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -24316,7 +24489,7 @@
         <v>29.771000000000001</v>
       </c>
       <c r="G33" s="1">
-        <v>32.9</v>
+        <v>27.9</v>
       </c>
       <c r="H33" s="1">
         <v>30.3</v>
@@ -24361,7 +24534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -24398,11 +24571,15 @@
       <c r="N34" s="12">
         <v>84.6</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.7</v>
       </c>
@@ -24433,17 +24610,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="X42" sqref="X42"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -24480,7 +24657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -24545,7 +24722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -24583,7 +24760,7 @@
         <v>0.129</v>
       </c>
       <c r="M4" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N4" s="6">
         <v>68</v>
@@ -24610,7 +24787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -24675,7 +24852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -24740,7 +24917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -24805,7 +24982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -24870,7 +25047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -24935,7 +25112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -25000,7 +25177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -25065,7 +25242,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -25130,7 +25307,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -25195,7 +25372,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -25260,7 +25437,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -25325,7 +25502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -25390,7 +25567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -25455,7 +25632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -25520,7 +25697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -25585,7 +25762,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -25650,7 +25827,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -25715,7 +25892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -25780,7 +25957,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -25845,7 +26022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -25910,7 +26087,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -25975,7 +26152,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -26040,7 +26217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -26105,7 +26282,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -26170,7 +26347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -26235,7 +26412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -26300,7 +26477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -26365,7 +26542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -26430,7 +26607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -26495,7 +26672,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -26532,11 +26709,15 @@
       <c r="N34" s="12">
         <v>78.7</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.7</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.5</v>
       </c>
@@ -26566,26 +26747,26 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43E2027-8566-4F24-BD57-2C2DEF03F051}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="I28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -26622,7 +26803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -26687,7 +26868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -26752,7 +26933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -26817,7 +26998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -26882,7 +27063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -26947,7 +27128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -27012,7 +27193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -27077,7 +27258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -27142,7 +27323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -27207,7 +27388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -27272,7 +27453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -27337,7 +27518,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -27402,7 +27583,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -27467,7 +27648,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -27532,7 +27713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -27597,7 +27778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -27662,7 +27843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
@@ -27727,7 +27908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -27792,7 +27973,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -27857,7 +28038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -27922,7 +28103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -27987,7 +28168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -28052,7 +28233,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -28117,7 +28298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -28182,7 +28363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -28247,7 +28428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -28312,7 +28493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -28377,7 +28558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -28442,7 +28623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -28507,7 +28688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -28572,7 +28753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
@@ -28637,7 +28818,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -28674,11 +28855,15 @@
       <c r="N34" s="12">
         <v>94.8</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.4</v>
       </c>
@@ -28691,6 +28876,23 @@
       <c r="U34" s="20">
         <v>0.48</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28710,17 +28912,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3289CD-9D97-49EF-92C4-FFFF5740CCC3}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -28757,7 +28959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -28822,7 +29024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -28887,7 +29089,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -28952,7 +29154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -29017,7 +29219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -29082,7 +29284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -29147,7 +29349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -29212,7 +29414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -29277,7 +29479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -29342,7 +29544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -29407,7 +29609,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -29472,7 +29674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -29537,7 +29739,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -29602,7 +29804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -29667,7 +29869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -29732,7 +29934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -29797,7 +29999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -29862,7 +30064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
@@ -29927,7 +30129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -29992,7 +30194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -30057,7 +30259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -30122,7 +30324,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -30187,7 +30389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -30252,7 +30454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -30317,7 +30519,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -30382,7 +30584,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -30447,7 +30649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>86</v>
       </c>
@@ -30512,7 +30714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -30577,7 +30779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -30642,7 +30844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
@@ -30707,7 +30909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
@@ -30772,7 +30974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30809,11 +31011,15 @@
       <c r="N34" s="12">
         <v>84.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.8</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>3</v>
       </c>
@@ -30844,17 +31050,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A7F5-7EB0-4803-AE7D-1F1798F594DA}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -30891,7 +31097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -30956,7 +31162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -31021,7 +31227,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -31086,7 +31292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
@@ -31151,7 +31357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -31216,7 +31422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -31281,7 +31487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -31346,7 +31552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -31411,7 +31617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -31476,7 +31682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
@@ -31541,7 +31747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>87</v>
       </c>
@@ -31606,7 +31812,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
@@ -31671,7 +31877,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>87</v>
       </c>
@@ -31736,7 +31942,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -31777,7 +31983,7 @@
         <v>62</v>
       </c>
       <c r="N16" s="6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>53</v>
@@ -31801,7 +32007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -31866,7 +32072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -31931,7 +32137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
@@ -31996,7 +32202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
@@ -32061,7 +32267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
@@ -32075,7 +32281,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="5">
-        <v>39.353000000000002</v>
+        <v>30.353000000000002</v>
       </c>
       <c r="F21" s="6">
         <v>30.364999999999998</v>
@@ -32126,7 +32332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -32191,7 +32397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
@@ -32214,7 +32420,7 @@
         <v>39.1</v>
       </c>
       <c r="H23" s="1">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1">
         <v>31.7</v>
@@ -32256,7 +32462,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -32321,7 +32527,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
@@ -32386,7 +32592,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
@@ -32451,7 +32657,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>87</v>
       </c>
@@ -32516,7 +32722,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -32581,7 +32787,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
@@ -32646,7 +32852,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -32711,7 +32917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -32776,7 +32982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
@@ -32841,7 +33047,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
@@ -32906,7 +33112,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -32943,11 +33149,15 @@
       <c r="N34" s="12">
         <v>77.2</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.4</v>
       </c>
@@ -32976,26 +33186,26 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07E7D3-C7C6-4C1F-B024-26DDB1B63117}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -33032,7 +33242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33097,7 +33307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -33162,7 +33372,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
@@ -33227,7 +33437,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
@@ -33292,7 +33502,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -33357,7 +33567,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -33422,7 +33632,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -33487,7 +33697,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -33552,7 +33762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -33617,7 +33827,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -33682,7 +33892,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -33747,7 +33957,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -33812,7 +34022,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
@@ -33877,7 +34087,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
@@ -33942,7 +34152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
@@ -34007,7 +34217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -34072,7 +34282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -34137,7 +34347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>90</v>
       </c>
@@ -34202,7 +34412,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -34267,7 +34477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
@@ -34332,7 +34542,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -34397,7 +34607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
@@ -34462,7 +34672,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -34527,7 +34737,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
@@ -34592,7 +34802,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
@@ -34657,7 +34867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -34716,13 +34926,13 @@
         <v>5</v>
       </c>
       <c r="T28" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U28" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
@@ -34787,7 +34997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>90</v>
       </c>
@@ -34852,7 +35062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -34917,7 +35127,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
@@ -34982,7 +35192,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
@@ -35047,7 +35257,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -35084,11 +35294,15 @@
       <c r="N34" s="12">
         <v>87.7</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.5</v>
       </c>
@@ -35101,6 +35315,23 @@
       <c r="U34" s="20">
         <v>1.61</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -35119,26 +35350,26 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BEAC26-C5B0-45DF-8883-8A32E1429DC5}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="K25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -35175,7 +35406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35240,7 +35471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -35305,7 +35536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -35342,8 +35573,8 @@
       <c r="L5" s="6">
         <v>0.223</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>22</v>
+      <c r="M5" s="2">
+        <v>66</v>
       </c>
       <c r="N5" s="6">
         <v>81</v>
@@ -35370,7 +35601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
@@ -35407,8 +35638,8 @@
       <c r="L6" s="6">
         <v>0.26300000000000001</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
+      <c r="M6" s="1">
+        <v>91</v>
       </c>
       <c r="N6" s="6">
         <v>88</v>
@@ -35435,7 +35666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
@@ -35472,8 +35703,8 @@
       <c r="L7" s="6">
         <v>0.248</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>22</v>
+      <c r="M7" s="1">
+        <v>92</v>
       </c>
       <c r="N7" s="6">
         <v>89</v>
@@ -35500,7 +35731,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -35565,7 +35796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -35630,7 +35861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -35695,7 +35926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -35760,7 +35991,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -35825,7 +36056,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
@@ -35887,10 +36118,10 @@
         <v>8</v>
       </c>
       <c r="U13" s="9">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -35955,7 +36186,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
@@ -36020,7 +36251,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
@@ -36085,7 +36316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>91</v>
       </c>
@@ -36150,7 +36381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
@@ -36215,7 +36446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -36280,7 +36511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>91</v>
       </c>
@@ -36345,7 +36576,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -36410,7 +36641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -36475,7 +36706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -36540,7 +36771,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
@@ -36605,7 +36836,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>91</v>
       </c>
@@ -36625,7 +36856,7 @@
         <v>30.100999999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>41.4</v>
+        <v>44.1</v>
       </c>
       <c r="H25" s="1">
         <v>45.9</v>
@@ -36670,7 +36901,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
@@ -36690,7 +36921,7 @@
         <v>30.105</v>
       </c>
       <c r="G26" s="1">
-        <v>44.1</v>
+        <v>41.5</v>
       </c>
       <c r="H26" s="1">
         <v>37.1</v>
@@ -36735,7 +36966,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>91</v>
       </c>
@@ -36800,7 +37031,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>91</v>
       </c>
@@ -36865,7 +37096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>91</v>
       </c>
@@ -36930,7 +37161,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>91</v>
       </c>
@@ -36995,7 +37226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -37060,7 +37291,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="18.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -37125,7 +37356,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21 16384:16384" ht="18.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>91</v>
       </c>
@@ -37190,55 +37421,84 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D34" s="1" t="s">
+    <row r="34" spans="1:21 16384:16384">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="30">
         <v>30.312999999999999</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="32">
         <v>30.311</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="30">
         <v>42.7</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="30">
         <v>41.6</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="30">
         <v>37.5</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="32">
         <v>48.5</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="30">
         <v>0.24099999999999999</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="32">
         <v>0.23599999999999999</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="30">
         <v>86</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="32">
         <v>86.8</v>
       </c>
-      <c r="P34" s="1">
+      <c r="O34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="30">
         <v>1.5</v>
       </c>
-      <c r="R34" s="6">
+      <c r="Q34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="32">
         <v>1.4</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="30">
         <v>7.8</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34" s="30">
         <v>6.4</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="33">
         <v>1.0840000000000001</v>
       </c>
+    </row>
+    <row r="35" spans="1:21 16384:16384">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="XFD35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -37258,16 +37518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B72303-BE3D-4EF5-B3F3-F954C1028531}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="L21" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -37304,7 +37564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37369,7 +37629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -37434,7 +37694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -37499,7 +37759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -37564,7 +37824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -37629,7 +37889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>92</v>
       </c>
@@ -37694,7 +37954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -37759,7 +38019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -37824,7 +38084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -37889,7 +38149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -37954,7 +38214,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -38019,7 +38279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
@@ -38084,7 +38344,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -38149,7 +38409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -38214,7 +38474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -38279,7 +38539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -38344,7 +38604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -38409,7 +38669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -38474,7 +38734,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -38539,7 +38799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>92</v>
       </c>
@@ -38604,7 +38864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -38669,7 +38929,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -38734,7 +38994,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -38799,7 +39059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -38864,7 +39124,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -38929,7 +39189,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -38994,7 +39254,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -39059,7 +39319,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -39124,7 +39384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
@@ -39189,7 +39449,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -39254,7 +39514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -39319,7 +39579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -39356,11 +39616,15 @@
       <c r="N34" s="12">
         <v>82.9</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.7</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.7</v>
       </c>
@@ -39390,26 +39654,26 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D2AE6-BEC7-4F51-B744-4A0ACE3E49DE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC33" sqref="AC33"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -39446,7 +39710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39511,7 +39775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -39576,7 +39840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -39641,7 +39905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -39706,7 +39970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -39771,7 +40035,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -39836,7 +40100,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
@@ -39850,7 +40114,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="5">
-        <v>30.609000000000002</v>
+        <v>30.669</v>
       </c>
       <c r="F9" s="6">
         <v>30.693999999999999</v>
@@ -39901,7 +40165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -39966,7 +40230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
@@ -40031,7 +40295,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -40096,7 +40360,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -40161,7 +40425,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
@@ -40226,7 +40490,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
@@ -40291,7 +40555,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
@@ -40356,7 +40620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
@@ -40421,7 +40685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
@@ -40486,7 +40750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
@@ -40551,7 +40815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -40616,7 +40880,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
@@ -40681,7 +40945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
@@ -40746,7 +41010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
@@ -40811,7 +41075,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>95</v>
       </c>
@@ -40876,7 +41140,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -40941,7 +41205,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -41006,7 +41270,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>95</v>
       </c>
@@ -41071,7 +41335,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
@@ -41136,7 +41400,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -41201,7 +41465,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -41266,7 +41530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -41331,7 +41595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
@@ -41396,7 +41660,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
@@ -41461,7 +41725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -41498,11 +41762,15 @@
       <c r="N34" s="12">
         <v>91.1</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.4</v>
       </c>
@@ -41515,6 +41783,23 @@
       <c r="U34" s="13">
         <v>0.86</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -41532,26 +41817,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227A18FA-8DBA-4F26-BBB0-AF4A42A8F1FC}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="C25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -41588,7 +41873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41653,7 +41938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -41691,7 +41976,7 @@
         <v>0.16</v>
       </c>
       <c r="M4" s="1">
-        <v>0.36799999999999999</v>
+        <v>81</v>
       </c>
       <c r="N4" s="6">
         <v>91</v>
@@ -41718,7 +42003,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -41756,7 +42041,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>0.31</v>
+        <v>86</v>
       </c>
       <c r="N5" s="6">
         <v>93</v>
@@ -41783,7 +42068,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -41821,7 +42106,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>0.2</v>
+        <v>97</v>
       </c>
       <c r="N6" s="6">
         <v>94</v>
@@ -41848,7 +42133,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -41886,7 +42171,7 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>0.25600000000000001</v>
+        <v>85</v>
       </c>
       <c r="N7" s="6">
         <v>88</v>
@@ -41913,7 +42198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -41951,7 +42236,7 @@
         <v>0.252</v>
       </c>
       <c r="M8" s="1">
-        <v>0.13800000000000001</v>
+        <v>74</v>
       </c>
       <c r="N8" s="6">
         <v>84</v>
@@ -41978,7 +42263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -42016,7 +42301,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>0.19600000000000001</v>
+        <v>82</v>
       </c>
       <c r="N9" s="6">
         <v>89</v>
@@ -42043,7 +42328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -42081,7 +42366,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>0.23100000000000001</v>
+        <v>78</v>
       </c>
       <c r="N10" s="6">
         <v>92</v>
@@ -42108,7 +42393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -42173,7 +42458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -42238,7 +42523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -42279,7 +42564,7 @@
         <v>96</v>
       </c>
       <c r="N13" s="6">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>21</v>
@@ -42303,7 +42588,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -42368,7 +42653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -42433,7 +42718,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -42468,7 +42753,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="L16" s="6">
-        <v>0.252</v>
+        <v>0.152</v>
       </c>
       <c r="M16" s="1">
         <v>79</v>
@@ -42498,7 +42783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -42563,7 +42848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -42616,7 +42901,7 @@
         <v>25</v>
       </c>
       <c r="R18" s="6">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -42628,7 +42913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -42693,7 +42978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -42758,7 +43043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -42819,11 +43104,11 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U21" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -42885,10 +43170,10 @@
         <v>9</v>
       </c>
       <c r="U22" s="9">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -42950,10 +43235,10 @@
         <v>10</v>
       </c>
       <c r="U23" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -43015,10 +43300,10 @@
         <v>10</v>
       </c>
       <c r="U24" s="9">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -43080,10 +43365,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -43148,7 +43433,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -43210,10 +43495,10 @@
         <v>10</v>
       </c>
       <c r="U27" s="9">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -43278,7 +43563,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -43316,7 +43601,7 @@
         <v>0.184</v>
       </c>
       <c r="M29" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N29" s="6">
         <v>93</v>
@@ -43343,7 +43628,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -43408,7 +43693,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -43470,10 +43755,10 @@
         <v>10</v>
       </c>
       <c r="U31" s="9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -43538,7 +43823,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
@@ -43603,7 +43888,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -43640,11 +43925,15 @@
       <c r="N34" s="12">
         <v>89.1</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.7</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.4</v>
       </c>
@@ -43657,6 +43946,23 @@
       <c r="U34" s="13">
         <v>1.9239999999999999</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43675,26 +43981,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="F28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -43731,7 +44037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43796,7 +44102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -43861,7 +44167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -43926,7 +44232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -43991,7 +44297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -44056,7 +44362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -44121,7 +44427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -44186,7 +44492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -44251,7 +44557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -44316,7 +44622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -44381,7 +44687,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -44446,7 +44752,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -44511,7 +44817,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -44576,7 +44882,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -44641,7 +44947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -44706,7 +45012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -44771,7 +45077,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -44836,7 +45142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -44901,7 +45207,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -44966,7 +45272,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -45031,7 +45337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -45096,7 +45402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -45161,7 +45467,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -45226,7 +45532,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
@@ -45291,7 +45597,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -45356,7 +45662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -45421,7 +45727,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -45486,7 +45792,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -45551,7 +45857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -45616,7 +45922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -45681,7 +45987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -45746,7 +46052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -45783,11 +46089,15 @@
       <c r="N34" s="12">
         <v>86.8</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3.1</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.7</v>
       </c>
@@ -45800,6 +46110,23 @@
       <c r="U34" s="13">
         <v>1.2689999999999999</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -45820,17 +46147,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="M25" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -45867,7 +46194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45932,7 +46259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -45997,7 +46324,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -46062,7 +46389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -46127,7 +46454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -46192,7 +46519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -46257,7 +46584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -46322,7 +46649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -46387,7 +46714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -46452,7 +46779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -46514,10 +46841,10 @@
         <v>10</v>
       </c>
       <c r="U12" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -46582,7 +46909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -46647,7 +46974,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -46712,7 +47039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -46777,7 +47104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -46842,7 +47169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -46907,7 +47234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -46972,7 +47299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -47037,7 +47364,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -47102,7 +47429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -47167,7 +47494,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -47232,7 +47559,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -47297,7 +47624,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -47362,7 +47689,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -47427,7 +47754,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -47465,7 +47792,7 @@
         <v>0.215</v>
       </c>
       <c r="M27" s="1">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N27" s="6">
         <v>97</v>
@@ -47492,7 +47819,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -47533,7 +47860,7 @@
         <v>97</v>
       </c>
       <c r="N28" s="6">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>21</v>
@@ -47557,7 +47884,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -47622,7 +47949,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -47687,7 +48014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -47752,7 +48079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -47817,7 +48144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -47882,7 +48209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -47919,11 +48246,15 @@
       <c r="N34" s="12">
         <v>88.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.2000000000000002</v>
       </c>
@@ -47953,26 +48284,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD3842-9C61-4617-AE21-5E6E6D85A650}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="L26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -48009,7 +48340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -48074,7 +48405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -48139,7 +48470,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -48204,7 +48535,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -48269,7 +48600,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -48292,7 +48623,7 @@
         <v>41.8</v>
       </c>
       <c r="H7" s="1">
-        <v>46.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="I7" s="1">
         <v>36.799999999999997</v>
@@ -48334,7 +48665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -48399,7 +48730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -48464,7 +48795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -48529,7 +48860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -48594,7 +48925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -48659,7 +48990,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -48724,7 +49055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -48747,7 +49078,7 @@
         <v>34.5</v>
       </c>
       <c r="H14" s="1">
-        <v>48.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="I14" s="1">
         <v>29.1</v>
@@ -48789,7 +49120,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -48812,7 +49143,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="I15" s="1">
         <v>31.9</v>
@@ -48854,7 +49185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -48919,7 +49250,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -48984,7 +49315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -49049,7 +49380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -49075,7 +49406,7 @@
         <v>36.9</v>
       </c>
       <c r="I19" s="1">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="J19" s="6">
         <v>42.5</v>
@@ -49114,7 +49445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -49179,7 +49510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -49205,7 +49536,7 @@
         <v>44.1</v>
       </c>
       <c r="I21" s="1">
-        <v>29.6</v>
+        <v>39.6</v>
       </c>
       <c r="J21" s="6">
         <v>52.1</v>
@@ -49244,7 +49575,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -49270,7 +49601,7 @@
         <v>40.1</v>
       </c>
       <c r="I22" s="1">
-        <v>29.4</v>
+        <v>39.4</v>
       </c>
       <c r="J22" s="6">
         <v>45</v>
@@ -49309,7 +49640,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -49323,7 +49654,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="5">
-        <v>0.27900000000000003</v>
+        <v>30.279</v>
       </c>
       <c r="F23" s="6">
         <v>30.129000000000001</v>
@@ -49374,7 +49705,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -49388,7 +49719,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5">
-        <v>29.898</v>
+        <v>29.896000000000001</v>
       </c>
       <c r="F24" s="6">
         <v>29.946999999999999</v>
@@ -49439,7 +49770,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -49504,7 +49835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -49569,7 +49900,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -49634,7 +49965,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -49699,7 +50030,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -49764,7 +50095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -49829,7 +50160,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -49894,7 +50225,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -49959,7 +50290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -50024,7 +50355,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50038,7 +50369,7 @@
         <v>30.219000000000001</v>
       </c>
       <c r="G34" s="10">
-        <v>37.799999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H34" s="11">
         <v>36.6</v>
@@ -50050,7 +50381,7 @@
         <v>43.3</v>
       </c>
       <c r="K34" s="10">
-        <v>0.308</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="L34" s="12">
         <v>0.20799999999999999</v>
@@ -50061,11 +50392,15 @@
       <c r="N34" s="12">
         <v>93.8</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.5</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.4</v>
       </c>
@@ -50078,6 +50413,23 @@
       <c r="U34" s="13">
         <v>2.016</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -50095,26 +50447,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3C7290-F441-421E-ACDE-BDA0F2227C67}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="I26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -50151,7 +50503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -50216,7 +50568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -50281,7 +50633,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -50346,7 +50698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -50411,7 +50763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -50476,7 +50828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -50541,7 +50893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -50555,7 +50907,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="5">
-        <v>30.353999999999999</v>
+        <v>30.553999999999998</v>
       </c>
       <c r="F9" s="6">
         <v>30.585000000000001</v>
@@ -50606,7 +50958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -50671,7 +51023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -50736,7 +51088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -50801,7 +51153,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -50866,7 +51218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -50880,7 +51232,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="5">
-        <v>29.978000000000002</v>
+        <v>29.975999999999999</v>
       </c>
       <c r="F14" s="6">
         <v>29.757999999999999</v>
@@ -50931,7 +51283,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -50996,7 +51348,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -51061,7 +51413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -51126,7 +51478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -51191,7 +51543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -51256,7 +51608,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -51321,7 +51673,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -51386,7 +51738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -51451,7 +51803,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -51516,7 +51868,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -51581,7 +51933,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -51646,7 +51998,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -51711,7 +52063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -51776,7 +52128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -51841,7 +52193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -51906,7 +52258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -51971,7 +52323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -52036,7 +52388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -52101,7 +52453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21 16384:16384">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -52166,7 +52518,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21 16384:16384">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -52203,11 +52555,15 @@
       <c r="N34" s="12">
         <v>81.3</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.5</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.8</v>
       </c>
@@ -52220,6 +52576,24 @@
       <c r="U34" s="20">
         <v>0.98</v>
       </c>
+    </row>
+    <row r="35" spans="1:21 16384:16384">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="XFD35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -52241,23 +52615,23 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="I26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -52294,7 +52668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -52359,7 +52733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -52424,7 +52798,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -52444,7 +52818,7 @@
         <v>30.347000000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="H5" s="1">
         <v>35.9</v>
@@ -52489,7 +52863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -52554,7 +52928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -52619,7 +52993,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -52684,7 +53058,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -52749,7 +53123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -52814,7 +53188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -52879,7 +53253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -52944,7 +53318,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -53009,7 +53383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -53029,7 +53403,7 @@
         <v>29.731999999999999</v>
       </c>
       <c r="G14" s="1">
-        <v>51.4</v>
+        <v>31.4</v>
       </c>
       <c r="H14" s="1">
         <v>40.9</v>
@@ -53074,7 +53448,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -53139,7 +53513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -53204,7 +53578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -53269,7 +53643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -53334,7 +53708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -53399,7 +53773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -53464,7 +53838,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -53529,7 +53903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -53546,7 +53920,7 @@
         <v>30.451000000000001</v>
       </c>
       <c r="F22" s="6">
-        <v>30.853000000000002</v>
+        <v>30.353000000000002</v>
       </c>
       <c r="G22" s="1">
         <v>43.9</v>
@@ -53594,7 +53968,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -53623,7 +53997,7 @@
         <v>30.8</v>
       </c>
       <c r="J23" s="6">
-        <v>29.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="K23" s="1">
         <v>0.187</v>
@@ -53659,7 +54033,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -53688,7 +54062,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="6">
-        <v>27.1</v>
+        <v>37.1</v>
       </c>
       <c r="K24" s="1">
         <v>0.184</v>
@@ -53724,7 +54098,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -53789,7 +54163,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -53854,7 +54228,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -53919,7 +54293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -53984,7 +54358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -54049,7 +54423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -54114,7 +54488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -54179,7 +54553,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -54244,7 +54618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -54309,7 +54683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -54346,11 +54720,15 @@
       <c r="N34" s="12">
         <v>93.9</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.8</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.2999999999999998</v>
       </c>
@@ -54364,10 +54742,22 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -54387,17 +54777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDBAB1-DE1F-4A3C-9BCF-CF6F687CA5A3}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView topLeftCell="K21" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -54434,7 +54824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -54499,7 +54889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -54531,7 +54921,7 @@
         <v>46.8</v>
       </c>
       <c r="K4" s="1">
-        <v>0.26900000000000002</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="L4" s="6">
         <v>0.19400000000000001</v>
@@ -54564,7 +54954,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -54629,7 +55019,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -54694,7 +55084,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -54759,7 +55149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -54824,7 +55214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -54862,7 +55252,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N9" s="6">
         <v>94</v>
@@ -54889,7 +55279,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -54954,7 +55344,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -55019,7 +55409,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -55039,7 +55429,7 @@
         <v>30.262</v>
       </c>
       <c r="G12" s="1">
-        <v>45.9</v>
+        <v>46.9</v>
       </c>
       <c r="H12" s="1">
         <v>46.2</v>
@@ -55084,7 +55474,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -55119,7 +55509,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="L13" s="6">
-        <v>2.2599999999999999E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="M13" s="1">
         <v>95</v>
@@ -55149,7 +55539,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -55214,7 +55604,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -55279,7 +55669,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -55344,7 +55734,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -55409,7 +55799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -55474,7 +55864,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -55539,7 +55929,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -55604,7 +55994,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -55669,7 +56059,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -55734,7 +56124,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -55772,7 +56162,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N23" s="6">
         <v>81</v>
@@ -55796,10 +56186,10 @@
         <v>10</v>
       </c>
       <c r="U23" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -55864,7 +56254,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -55929,7 +56319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -55991,10 +56381,10 @@
         <v>10</v>
       </c>
       <c r="U26" s="9">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -56056,10 +56446,10 @@
         <v>5</v>
       </c>
       <c r="U27" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -56124,7 +56514,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -56189,7 +56579,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -56254,7 +56644,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -56319,7 +56709,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -56384,7 +56774,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -56407,7 +56797,7 @@
         <v>31.2</v>
       </c>
       <c r="H33" s="1">
-        <v>39.9</v>
+        <v>30.9</v>
       </c>
       <c r="I33" s="1">
         <v>29</v>
@@ -56449,7 +56839,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -56486,11 +56876,15 @@
       <c r="N34" s="12">
         <v>89.7</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.7</v>
       </c>
@@ -56518,37 +56912,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35920</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35920</Url>
-      <Description>H7Q62YT2XCZT-908671883-35920</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -56580,6 +56945,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -56678,6 +57044,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -56847,6 +57218,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35920</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35920</Url>
+      <Description>H7Q62YT2XCZT-908671883-35920</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -56898,51 +57298,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
-    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
-    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DA93D4-7346-4707-B763-2E78DD747148}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2B2C4A0-6B16-412E-B9D6-C44C5B4C6DDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
-    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
-    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB95661F-4F7C-4C43-B8E7-93AAA045870F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB95661F-4F7C-4C43-B8E7-93AAA045870F}"/>
 </file>